--- a/www.eia.gov/forecasts/steo/xls/Fig3.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig3.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Prices (dollars per gallon)</t>
@@ -56,7 +56,7 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Crude oil price is composite refiner acquisition cost.  Retail prices include state and federal taxes.</t>
@@ -654,88 +654,88 @@
                   <c:v>1.3339333333333334</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3766309523809523</c:v>
+                  <c:v>1.3768690476190477</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3536857142857144</c:v>
+                  <c:v>1.3396380952380953</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3739761904761905</c:v>
+                  <c:v>1.3758809523809523</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.2964285714285713</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3932932857142857</c:v>
+                  <c:v>1.3538476190476192</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.4750542857142859</c:v>
+                  <c:v>1.4371567619047618</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5384902857142857</c:v>
+                  <c:v>1.503708761904762</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5001902857142861</c:v>
+                  <c:v>1.4673387619047622</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4861042857142859</c:v>
+                  <c:v>1.4547437619047621</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4846232857142858</c:v>
+                  <c:v>1.4550667619047615</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.468588761904762</c:v>
+                  <c:v>1.4405162380952379</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4945097619047618</c:v>
+                  <c:v>1.4677852380952379</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5225717619047621</c:v>
+                  <c:v>1.4966572380952381</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5317887619047621</c:v>
+                  <c:v>1.506483238095238</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.551025761904762</c:v>
+                  <c:v>1.5248192380952381</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5557437619047616</c:v>
+                  <c:v>1.5313872380952382</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.5211017619047618</c:v>
+                  <c:v>1.5029392380952382</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.5488247619047621</c:v>
+                  <c:v>1.5336452380952381</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5962277619047618</c:v>
+                  <c:v>1.581463238095238</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.535331238095238</c:v>
+                  <c:v>1.5210877142857144</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5155457142857138</c:v>
+                  <c:v>1.5012651904761902</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5257037142857139</c:v>
+                  <c:v>1.5106831904761904</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5253407142857143</c:v>
+                  <c:v>1.5102021904761906</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5249061904761902</c:v>
+                  <c:v>1.5101496666666667</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5582821904761903</c:v>
+                  <c:v>1.5436096666666665</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5586516666666668</c:v>
+                  <c:v>1.5444431428571428</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.5819386666666666</c:v>
+                  <c:v>1.5672271428571429</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5774701428571429</c:v>
+                  <c:v>1.5645696190476195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,8 +750,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="80"/>
-        <c:axId val="673148112"/>
-        <c:axId val="673145312"/>
+        <c:axId val="625602992"/>
+        <c:axId val="625615312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1148,76 +1148,76 @@
                   <c:v>2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6075789999999999</c:v>
+                  <c:v>2.5798000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.6893400000000001</c:v>
+                  <c:v>2.675252</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.7527759999999999</c:v>
+                  <c:v>2.7418040000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.7144760000000003</c:v>
+                  <c:v>2.7054340000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7003900000000001</c:v>
+                  <c:v>2.6928390000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.698909</c:v>
+                  <c:v>2.6931619999999996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.7066840000000001</c:v>
+                  <c:v>2.7024209999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.732605</c:v>
+                  <c:v>2.7296899999999997</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.7606670000000002</c:v>
+                  <c:v>2.758562</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.7698840000000002</c:v>
+                  <c:v>2.7683879999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.7891210000000002</c:v>
+                  <c:v>2.786724</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.7938389999999997</c:v>
+                  <c:v>2.7932920000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.7591969999999999</c:v>
+                  <c:v>2.7648440000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7869200000000003</c:v>
+                  <c:v>2.79555</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8343229999999999</c:v>
+                  <c:v>2.8433679999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.7972359999999998</c:v>
+                  <c:v>2.8068020000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8012599999999996</c:v>
+                  <c:v>2.8107889999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8114179999999998</c:v>
+                  <c:v>2.8202069999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.8110550000000001</c:v>
+                  <c:v>2.8197260000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.8344299999999998</c:v>
+                  <c:v>2.843483</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.8678059999999999</c:v>
+                  <c:v>2.8769429999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.891985</c:v>
+                  <c:v>2.901586</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9152719999999999</c:v>
+                  <c:v>2.9243700000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9346130000000001</c:v>
+                  <c:v>2.9455220000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,88 +1604,88 @@
                   <c:v>1.0166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0176190476190476</c:v>
+                  <c:v>1.0173809523809523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1007142857142858</c:v>
+                  <c:v>1.1147619047619048</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0645238095238094</c:v>
+                  <c:v>1.0626190476190476</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.2135714285714285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2259523809523809</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2142857142857142</c:v>
+                  <c:v>1.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2380952380952381</c:v>
+                  <c:v>1.2619047619047619</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2619047619047619</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.3095238095238095</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3095238095238095</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3095238095238095</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.3571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3571428571428572</c:v>
+                  <c:v>1.3809523809523809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,8 +1702,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673148112"/>
-        <c:axId val="673145312"/>
+        <c:axId val="625602992"/>
+        <c:axId val="625615312"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1789,10 +1789,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,11 +1822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="673150352"/>
-        <c:axId val="673150912"/>
+        <c:axId val="625615872"/>
+        <c:axId val="625616432"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="673148112"/>
+        <c:axId val="625602992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1843,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673145312"/>
+        <c:crossAx val="625615312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1854,7 +1854,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673145312"/>
+        <c:axId val="625615312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1882,12 +1882,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673148112"/>
+        <c:crossAx val="625602992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673150352"/>
+        <c:axId val="625615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72"/>
@@ -1904,12 +1904,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673150912"/>
+        <c:crossAx val="625616432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673150912"/>
+        <c:axId val="625616432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1926,7 +1926,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="673150352"/>
+        <c:crossAx val="625615872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2085,7 +2085,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2815,10 +2815,10 @@
             <v>2.39425</v>
           </cell>
           <cell r="C72">
-            <v>1.0176190476190476</v>
+            <v>1.0173809523809523</v>
           </cell>
           <cell r="E72">
-            <v>1.3766309523809523</v>
+            <v>1.3768690476190477</v>
           </cell>
         </row>
         <row r="73">
@@ -2829,10 +2829,10 @@
             <v>2.4544000000000001</v>
           </cell>
           <cell r="C73">
-            <v>1.1007142857142858</v>
+            <v>1.1147619047619048</v>
           </cell>
           <cell r="E73">
-            <v>1.3536857142857144</v>
+            <v>1.3396380952380953</v>
           </cell>
         </row>
         <row r="74">
@@ -2843,10 +2843,10 @@
             <v>2.4384999999999999</v>
           </cell>
           <cell r="C74">
-            <v>1.0645238095238094</v>
+            <v>1.0626190476190476</v>
           </cell>
           <cell r="E74">
-            <v>1.3739761904761905</v>
+            <v>1.3758809523809523</v>
           </cell>
         </row>
         <row r="75">
@@ -2868,13 +2868,13 @@
             <v>42736</v>
           </cell>
           <cell r="B76">
-            <v>2.6075789999999999</v>
+            <v>2.5798000000000001</v>
           </cell>
           <cell r="C76">
-            <v>1.2142857142857142</v>
+            <v>1.2259523809523809</v>
           </cell>
           <cell r="E76">
-            <v>1.3932932857142857</v>
+            <v>1.3538476190476192</v>
           </cell>
         </row>
         <row r="77">
@@ -2882,13 +2882,13 @@
             <v>42767</v>
           </cell>
           <cell r="B77">
-            <v>2.6893400000000001</v>
+            <v>2.675252</v>
           </cell>
           <cell r="C77">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E77">
-            <v>1.4750542857142859</v>
+            <v>1.4371567619047618</v>
           </cell>
         </row>
         <row r="78">
@@ -2896,13 +2896,13 @@
             <v>42795</v>
           </cell>
           <cell r="B78">
-            <v>2.7527759999999999</v>
+            <v>2.7418040000000001</v>
           </cell>
           <cell r="C78">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E78">
-            <v>1.5384902857142857</v>
+            <v>1.503708761904762</v>
           </cell>
         </row>
         <row r="79">
@@ -2910,13 +2910,13 @@
             <v>42826</v>
           </cell>
           <cell r="B79">
-            <v>2.7144760000000003</v>
+            <v>2.7054340000000003</v>
           </cell>
           <cell r="C79">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E79">
-            <v>1.5001902857142861</v>
+            <v>1.4673387619047622</v>
           </cell>
         </row>
         <row r="80">
@@ -2924,13 +2924,13 @@
             <v>42856</v>
           </cell>
           <cell r="B80">
-            <v>2.7003900000000001</v>
+            <v>2.6928390000000002</v>
           </cell>
           <cell r="C80">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E80">
-            <v>1.4861042857142859</v>
+            <v>1.4547437619047621</v>
           </cell>
         </row>
         <row r="81">
@@ -2938,13 +2938,13 @@
             <v>42887</v>
           </cell>
           <cell r="B81">
-            <v>2.698909</v>
+            <v>2.6931619999999996</v>
           </cell>
           <cell r="C81">
-            <v>1.2142857142857142</v>
+            <v>1.2380952380952381</v>
           </cell>
           <cell r="E81">
-            <v>1.4846232857142858</v>
+            <v>1.4550667619047615</v>
           </cell>
         </row>
         <row r="82">
@@ -2952,13 +2952,13 @@
             <v>42917</v>
           </cell>
           <cell r="B82">
-            <v>2.7066840000000001</v>
+            <v>2.7024209999999997</v>
           </cell>
           <cell r="C82">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E82">
-            <v>1.468588761904762</v>
+            <v>1.4405162380952379</v>
           </cell>
         </row>
         <row r="83">
@@ -2966,13 +2966,13 @@
             <v>42948</v>
           </cell>
           <cell r="B83">
-            <v>2.732605</v>
+            <v>2.7296899999999997</v>
           </cell>
           <cell r="C83">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E83">
-            <v>1.4945097619047618</v>
+            <v>1.4677852380952379</v>
           </cell>
         </row>
         <row r="84">
@@ -2980,13 +2980,13 @@
             <v>42979</v>
           </cell>
           <cell r="B84">
-            <v>2.7606670000000002</v>
+            <v>2.758562</v>
           </cell>
           <cell r="C84">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E84">
-            <v>1.5225717619047621</v>
+            <v>1.4966572380952381</v>
           </cell>
         </row>
         <row r="85">
@@ -2994,13 +2994,13 @@
             <v>43009</v>
           </cell>
           <cell r="B85">
-            <v>2.7698840000000002</v>
+            <v>2.7683879999999998</v>
           </cell>
           <cell r="C85">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E85">
-            <v>1.5317887619047621</v>
+            <v>1.506483238095238</v>
           </cell>
         </row>
         <row r="86">
@@ -3008,13 +3008,13 @@
             <v>43040</v>
           </cell>
           <cell r="B86">
-            <v>2.7891210000000002</v>
+            <v>2.786724</v>
           </cell>
           <cell r="C86">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E86">
-            <v>1.551025761904762</v>
+            <v>1.5248192380952381</v>
           </cell>
         </row>
         <row r="87">
@@ -3022,13 +3022,13 @@
             <v>43070</v>
           </cell>
           <cell r="B87">
-            <v>2.7938389999999997</v>
+            <v>2.7932920000000001</v>
           </cell>
           <cell r="C87">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E87">
-            <v>1.5557437619047616</v>
+            <v>1.5313872380952382</v>
           </cell>
         </row>
         <row r="88">
@@ -3036,13 +3036,13 @@
             <v>43101</v>
           </cell>
           <cell r="B88">
-            <v>2.7591969999999999</v>
+            <v>2.7648440000000001</v>
           </cell>
           <cell r="C88">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E88">
-            <v>1.5211017619047618</v>
+            <v>1.5029392380952382</v>
           </cell>
         </row>
         <row r="89">
@@ -3050,13 +3050,13 @@
             <v>43132</v>
           </cell>
           <cell r="B89">
-            <v>2.7869200000000003</v>
+            <v>2.79555</v>
           </cell>
           <cell r="C89">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E89">
-            <v>1.5488247619047621</v>
+            <v>1.5336452380952381</v>
           </cell>
         </row>
         <row r="90">
@@ -3064,13 +3064,13 @@
             <v>43160</v>
           </cell>
           <cell r="B90">
-            <v>2.8343229999999999</v>
+            <v>2.8433679999999999</v>
           </cell>
           <cell r="C90">
-            <v>1.2380952380952381</v>
+            <v>1.2619047619047619</v>
           </cell>
           <cell r="E90">
-            <v>1.5962277619047618</v>
+            <v>1.581463238095238</v>
           </cell>
         </row>
         <row r="91">
@@ -3078,13 +3078,13 @@
             <v>43191</v>
           </cell>
           <cell r="B91">
-            <v>2.7972359999999998</v>
+            <v>2.8068020000000002</v>
           </cell>
           <cell r="C91">
-            <v>1.2619047619047619</v>
+            <v>1.2857142857142858</v>
           </cell>
           <cell r="E91">
-            <v>1.535331238095238</v>
+            <v>1.5210877142857144</v>
           </cell>
         </row>
         <row r="92">
@@ -3092,13 +3092,13 @@
             <v>43221</v>
           </cell>
           <cell r="B92">
-            <v>2.8012599999999996</v>
+            <v>2.8107889999999998</v>
           </cell>
           <cell r="C92">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E92">
-            <v>1.5155457142857138</v>
+            <v>1.5012651904761902</v>
           </cell>
         </row>
         <row r="93">
@@ -3106,13 +3106,13 @@
             <v>43252</v>
           </cell>
           <cell r="B93">
-            <v>2.8114179999999998</v>
+            <v>2.8202069999999999</v>
           </cell>
           <cell r="C93">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E93">
-            <v>1.5257037142857139</v>
+            <v>1.5106831904761904</v>
           </cell>
         </row>
         <row r="94">
@@ -3120,13 +3120,13 @@
             <v>43282</v>
           </cell>
           <cell r="B94">
-            <v>2.8110550000000001</v>
+            <v>2.8197260000000002</v>
           </cell>
           <cell r="C94">
-            <v>1.2857142857142858</v>
+            <v>1.3095238095238095</v>
           </cell>
           <cell r="E94">
-            <v>1.5253407142857143</v>
+            <v>1.5102021904761906</v>
           </cell>
         </row>
         <row r="95">
@@ -3134,13 +3134,13 @@
             <v>43313</v>
           </cell>
           <cell r="B95">
-            <v>2.8344299999999998</v>
+            <v>2.843483</v>
           </cell>
           <cell r="C95">
-            <v>1.3095238095238095</v>
+            <v>1.3333333333333333</v>
           </cell>
           <cell r="E95">
-            <v>1.5249061904761902</v>
+            <v>1.5101496666666667</v>
           </cell>
         </row>
         <row r="96">
@@ -3148,13 +3148,13 @@
             <v>43344</v>
           </cell>
           <cell r="B96">
-            <v>2.8678059999999999</v>
+            <v>2.8769429999999998</v>
           </cell>
           <cell r="C96">
-            <v>1.3095238095238095</v>
+            <v>1.3333333333333333</v>
           </cell>
           <cell r="E96">
-            <v>1.5582821904761903</v>
+            <v>1.5436096666666665</v>
           </cell>
         </row>
         <row r="97">
@@ -3162,13 +3162,13 @@
             <v>43374</v>
           </cell>
           <cell r="B97">
-            <v>2.891985</v>
+            <v>2.901586</v>
           </cell>
           <cell r="C97">
-            <v>1.3333333333333333</v>
+            <v>1.3571428571428572</v>
           </cell>
           <cell r="E97">
-            <v>1.5586516666666668</v>
+            <v>1.5444431428571428</v>
           </cell>
         </row>
         <row r="98">
@@ -3176,13 +3176,13 @@
             <v>43405</v>
           </cell>
           <cell r="B98">
-            <v>2.9152719999999999</v>
+            <v>2.9243700000000001</v>
           </cell>
           <cell r="C98">
-            <v>1.3333333333333333</v>
+            <v>1.3571428571428572</v>
           </cell>
           <cell r="E98">
-            <v>1.5819386666666666</v>
+            <v>1.5672271428571429</v>
           </cell>
         </row>
         <row r="99">
@@ -3190,13 +3190,13 @@
             <v>43435</v>
           </cell>
           <cell r="B99">
-            <v>2.9346130000000001</v>
+            <v>2.9455220000000004</v>
           </cell>
           <cell r="C99">
-            <v>1.3571428571428572</v>
+            <v>1.3809523809523809</v>
           </cell>
           <cell r="E99">
-            <v>1.5774701428571429</v>
+            <v>1.5645696190476195</v>
           </cell>
         </row>
         <row r="103">
@@ -3206,7 +3206,7 @@
         </row>
         <row r="104">
           <cell r="A104">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B104">
             <v>0</v>
@@ -3214,7 +3214,7 @@
         </row>
         <row r="105">
           <cell r="A105">
-            <v>48</v>
+            <v>49</v>
           </cell>
           <cell r="B105">
             <v>1</v>
@@ -4304,12 +4304,12 @@
         <v>2.39425</v>
       </c>
       <c r="C72" s="2">
-        <v>1.0176190476190476</v>
+        <v>1.0173809523809523</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="15">
         <f t="shared" si="0"/>
-        <v>1.3766309523809523</v>
+        <v>1.3768690476190477</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4320,12 +4320,12 @@
         <v>2.4544000000000001</v>
       </c>
       <c r="C73" s="2">
-        <v>1.1007142857142858</v>
+        <v>1.1147619047619048</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="15">
         <f t="shared" si="0"/>
-        <v>1.3536857142857144</v>
+        <v>1.3396380952380953</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,12 +4336,12 @@
         <v>2.4384999999999999</v>
       </c>
       <c r="C74" s="2">
-        <v>1.0645238095238094</v>
+        <v>1.0626190476190476</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="15">
         <f t="shared" si="0"/>
-        <v>1.3739761904761905</v>
+        <v>1.3758809523809523</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,15 +4365,15 @@
         <v>42736</v>
       </c>
       <c r="B76" s="2">
-        <v>2.6075789999999999</v>
+        <v>2.5798000000000001</v>
       </c>
       <c r="C76" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2259523809523809</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="15">
         <f t="shared" si="0"/>
-        <v>1.3932932857142857</v>
+        <v>1.3538476190476192</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4381,15 +4381,15 @@
         <v>42767</v>
       </c>
       <c r="B77" s="2">
-        <v>2.6893400000000001</v>
+        <v>2.675252</v>
       </c>
       <c r="C77" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="15">
         <f t="shared" si="0"/>
-        <v>1.4750542857142859</v>
+        <v>1.4371567619047618</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4397,15 +4397,15 @@
         <v>42795</v>
       </c>
       <c r="B78" s="2">
-        <v>2.7527759999999999</v>
+        <v>2.7418040000000001</v>
       </c>
       <c r="C78" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="15">
         <f t="shared" si="0"/>
-        <v>1.5384902857142857</v>
+        <v>1.503708761904762</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,15 +4413,15 @@
         <v>42826</v>
       </c>
       <c r="B79" s="2">
-        <v>2.7144760000000003</v>
+        <v>2.7054340000000003</v>
       </c>
       <c r="C79" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="15">
         <f t="shared" si="0"/>
-        <v>1.5001902857142861</v>
+        <v>1.4673387619047622</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4429,15 +4429,15 @@
         <v>42856</v>
       </c>
       <c r="B80" s="2">
-        <v>2.7003900000000001</v>
+        <v>2.6928390000000002</v>
       </c>
       <c r="C80" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="15">
         <f t="shared" si="0"/>
-        <v>1.4861042857142859</v>
+        <v>1.4547437619047621</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,15 +4445,15 @@
         <v>42887</v>
       </c>
       <c r="B81" s="2">
-        <v>2.698909</v>
+        <v>2.6931619999999996</v>
       </c>
       <c r="C81" s="2">
-        <v>1.2142857142857142</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="15">
         <f t="shared" si="0"/>
-        <v>1.4846232857142858</v>
+        <v>1.4550667619047615</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4461,15 +4461,15 @@
         <v>42917</v>
       </c>
       <c r="B82" s="2">
-        <v>2.7066840000000001</v>
+        <v>2.7024209999999997</v>
       </c>
       <c r="C82" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="15">
         <f t="shared" si="0"/>
-        <v>1.468588761904762</v>
+        <v>1.4405162380952379</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -4479,15 +4479,15 @@
         <v>42948</v>
       </c>
       <c r="B83" s="2">
-        <v>2.732605</v>
+        <v>2.7296899999999997</v>
       </c>
       <c r="C83" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="15">
         <f t="shared" si="0"/>
-        <v>1.4945097619047618</v>
+        <v>1.4677852380952379</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4495,15 +4495,15 @@
         <v>42979</v>
       </c>
       <c r="B84" s="2">
-        <v>2.7606670000000002</v>
+        <v>2.758562</v>
       </c>
       <c r="C84" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="15">
         <f t="shared" si="0"/>
-        <v>1.5225717619047621</v>
+        <v>1.4966572380952381</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,15 +4511,15 @@
         <v>43009</v>
       </c>
       <c r="B85" s="2">
-        <v>2.7698840000000002</v>
+        <v>2.7683879999999998</v>
       </c>
       <c r="C85" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="15">
         <f t="shared" si="0"/>
-        <v>1.5317887619047621</v>
+        <v>1.506483238095238</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,15 +4527,15 @@
         <v>43040</v>
       </c>
       <c r="B86" s="2">
-        <v>2.7891210000000002</v>
+        <v>2.786724</v>
       </c>
       <c r="C86" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="15">
         <f t="shared" si="0"/>
-        <v>1.551025761904762</v>
+        <v>1.5248192380952381</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,15 +4543,15 @@
         <v>43070</v>
       </c>
       <c r="B87" s="2">
-        <v>2.7938389999999997</v>
+        <v>2.7932920000000001</v>
       </c>
       <c r="C87" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="15">
         <f t="shared" si="0"/>
-        <v>1.5557437619047616</v>
+        <v>1.5313872380952382</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4559,15 +4559,15 @@
         <v>43101</v>
       </c>
       <c r="B88" s="2">
-        <v>2.7591969999999999</v>
+        <v>2.7648440000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="15">
         <f t="shared" si="0"/>
-        <v>1.5211017619047618</v>
+        <v>1.5029392380952382</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4575,15 +4575,15 @@
         <v>43132</v>
       </c>
       <c r="B89" s="2">
-        <v>2.7869200000000003</v>
+        <v>2.79555</v>
       </c>
       <c r="C89" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="15">
         <f t="shared" si="0"/>
-        <v>1.5488247619047621</v>
+        <v>1.5336452380952381</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4591,15 +4591,15 @@
         <v>43160</v>
       </c>
       <c r="B90" s="2">
-        <v>2.8343229999999999</v>
+        <v>2.8433679999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>1.2380952380952381</v>
+        <v>1.2619047619047619</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="15">
         <f t="shared" si="0"/>
-        <v>1.5962277619047618</v>
+        <v>1.581463238095238</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4607,15 +4607,15 @@
         <v>43191</v>
       </c>
       <c r="B91" s="2">
-        <v>2.7972359999999998</v>
+        <v>2.8068020000000002</v>
       </c>
       <c r="C91" s="2">
-        <v>1.2619047619047619</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="15">
         <f t="shared" si="0"/>
-        <v>1.535331238095238</v>
+        <v>1.5210877142857144</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,15 +4623,15 @@
         <v>43221</v>
       </c>
       <c r="B92" s="2">
-        <v>2.8012599999999996</v>
+        <v>2.8107889999999998</v>
       </c>
       <c r="C92" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="15">
         <f t="shared" si="0"/>
-        <v>1.5155457142857138</v>
+        <v>1.5012651904761902</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4639,15 +4639,15 @@
         <v>43252</v>
       </c>
       <c r="B93" s="2">
-        <v>2.8114179999999998</v>
+        <v>2.8202069999999999</v>
       </c>
       <c r="C93" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="15">
         <f t="shared" ref="E93:E99" si="1">B93-C93</f>
-        <v>1.5257037142857139</v>
+        <v>1.5106831904761904</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4655,15 +4655,15 @@
         <v>43282</v>
       </c>
       <c r="B94" s="2">
-        <v>2.8110550000000001</v>
+        <v>2.8197260000000002</v>
       </c>
       <c r="C94" s="2">
-        <v>1.2857142857142858</v>
+        <v>1.3095238095238095</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="15">
         <f t="shared" si="1"/>
-        <v>1.5253407142857143</v>
+        <v>1.5102021904761906</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,15 +4671,15 @@
         <v>43313</v>
       </c>
       <c r="B95" s="2">
-        <v>2.8344299999999998</v>
+        <v>2.843483</v>
       </c>
       <c r="C95" s="2">
-        <v>1.3095238095238095</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="15">
         <f t="shared" si="1"/>
-        <v>1.5249061904761902</v>
+        <v>1.5101496666666667</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,15 +4687,15 @@
         <v>43344</v>
       </c>
       <c r="B96" s="2">
-        <v>2.8678059999999999</v>
+        <v>2.8769429999999998</v>
       </c>
       <c r="C96" s="2">
-        <v>1.3095238095238095</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="15">
         <f t="shared" si="1"/>
-        <v>1.5582821904761903</v>
+        <v>1.5436096666666665</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,15 +4703,15 @@
         <v>43374</v>
       </c>
       <c r="B97" s="2">
-        <v>2.891985</v>
+        <v>2.901586</v>
       </c>
       <c r="C97" s="2">
-        <v>1.3333333333333333</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="15">
         <f t="shared" si="1"/>
-        <v>1.5586516666666668</v>
+        <v>1.5444431428571428</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,15 +4719,15 @@
         <v>43405</v>
       </c>
       <c r="B98" s="2">
-        <v>2.9152719999999999</v>
+        <v>2.9243700000000001</v>
       </c>
       <c r="C98" s="2">
-        <v>1.3333333333333333</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="15">
         <f t="shared" si="1"/>
-        <v>1.5819386666666666</v>
+        <v>1.5672271428571429</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4735,15 +4735,15 @@
         <v>43435</v>
       </c>
       <c r="B99" s="18">
-        <v>2.9346130000000001</v>
+        <v>2.9455220000000004</v>
       </c>
       <c r="C99" s="18">
-        <v>1.3571428571428572</v>
+        <v>1.3809523809523809</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="20">
         <f t="shared" si="1"/>
-        <v>1.5774701428571429</v>
+        <v>1.5645696190476195</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
